--- a/mysite/apps/mpemail/config/company.xlsx
+++ b/mysite/apps/mpemail/config/company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="5020" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="10860" yWindow="4600" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>자동화 처리 대상인지 여부
+0: 자동화 불가 업체
+1: 자동화 허용 업체</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>1688-2528</t>
   </si>
@@ -192,13 +216,40 @@
   </si>
   <si>
     <t>010-7764-5572</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>거래처명</t>
+  </si>
+  <si>
+    <t>거래처코드</t>
+  </si>
+  <si>
+    <t>자동화 여부</t>
+  </si>
+  <si>
+    <t>거래유형코드</t>
+  </si>
+  <si>
+    <t>전화</t>
+  </si>
+  <si>
+    <t>핸드폰</t>
+  </si>
+  <si>
+    <t>우편번호</t>
+  </si>
+  <si>
+    <t>주소</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +284,17 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -289,7 +351,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +381,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,11 +698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,44 +714,44 @@
     <col min="8" max="8" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6">
-        <v>25742</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -695,10 +760,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H2" s="6">
         <v>25742</v>
@@ -709,13 +774,13 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -724,85 +789,85 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" s="6">
-        <v>13571</v>
+        <v>25742</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="10">
-        <v>49921</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6">
+        <v>13571</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H5" s="10">
-        <v>65712</v>
+        <v>49921</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -810,28 +875,28 @@
       <c r="E6" s="5">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>35</v>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H6" s="10">
-        <v>41273</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>36</v>
+        <v>65712</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
+      <c r="A7" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -840,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" s="10">
-        <v>41274</v>
+        <v>41273</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>36</v>
@@ -854,13 +919,13 @@
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -869,13 +934,13 @@
         <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" s="10">
-        <v>41275</v>
+        <v>41274</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>36</v>
@@ -883,13 +948,13 @@
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -898,27 +963,27 @@
         <v>11</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9" s="10">
-        <v>41276</v>
+        <v>41275</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>46</v>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -927,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H10" s="10">
-        <v>41277</v>
+        <v>41276</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>36</v>
@@ -941,13 +1006,13 @@
     </row>
     <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -956,27 +1021,46 @@
         <v>11</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H11" s="10">
-        <v>41278</v>
+        <v>41277</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="10">
+        <v>41278</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1188,13 +1272,24 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/mysite/apps/mpemail/config/company.xlsx
+++ b/mysite/apps/mpemail/config/company.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenekim/outsource/mpemail/mysite/apps/mpemail/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003AA9A-E080-46DF-B4B3-11091B174B3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{0108EB99-0ACD-41C2-916C-117029E192F0}"/>
+    <workbookView xWindow="42200" yWindow="2480" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>djkim</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{81BA0A4A-71FE-4323-9138-EBE6A01791E5}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>email</t>
   </si>
@@ -394,24 +396,27 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>futurecrew@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -419,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -427,7 +432,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -446,6 +451,15 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -480,12 +494,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,9 +530,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,25 +847,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D420D5-9E15-4ECA-A64F-E3328FE25A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +895,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -904,7 +925,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -934,7 +955,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -964,7 +985,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -994,7 +1015,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1024,18 +1045,36 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1046,7 +1085,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1057,7 +1096,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1068,7 +1107,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1079,7 +1118,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1090,7 +1129,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1101,7 +1140,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1112,7 +1151,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1123,7 +1162,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1134,7 +1173,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1145,7 +1184,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1156,7 +1195,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1167,7 +1206,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1178,7 +1217,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1189,7 +1228,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1200,7 +1239,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1211,7 +1250,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1222,7 +1261,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1233,7 +1272,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1244,7 +1283,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1255,7 +1294,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1266,7 +1305,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1277,7 +1316,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1288,7 +1327,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1299,7 +1338,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1310,7 +1349,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1323,8 +1362,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>